--- a/Basic Of Selenium In POM/TestData.xlsx
+++ b/Basic Of Selenium In POM/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>First Name</t>
   </si>
@@ -49,13 +49,49 @@
   </si>
   <si>
     <t>Rahman</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>User Type</t>
+  </si>
+  <si>
+    <t>Valid User &amp; Password</t>
+  </si>
+  <si>
+    <t>sakhaout</t>
+  </si>
+  <si>
+    <t>Valid User &amp; Invalid Password</t>
+  </si>
+  <si>
+    <t>Invalide username &amp; Valid password</t>
+  </si>
+  <si>
+    <t>Invalide username &amp; Invalid password</t>
+  </si>
+  <si>
+    <t>Sakhaout8</t>
+  </si>
+  <si>
+    <t>Sakhaout10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             Data For Create New Contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              Data For Login Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,9 +101,57 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -89,16 +173,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -402,63 +631,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
